--- a/训练语料/基本意图.xlsx
+++ b/训练语料/基本意图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22890" windowHeight="6315"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="99">
   <si>
     <t>name</t>
   </si>
@@ -34,6 +34,21 @@
   </si>
   <si>
     <t>retcls</t>
+  </si>
+  <si>
+    <t>注释</t>
+  </si>
+  <si>
+    <t>#{{sub}}</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>注释2</t>
+  </si>
+  <si>
+    <t>申明</t>
   </si>
   <si>
     <t>终端输出文本</t>
@@ -303,54 +318,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -370,6 +350,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -379,41 +398,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -464,7 +451,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -479,49 +487,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,121 +625,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,21 +678,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -717,6 +710,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -775,148 +783,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -927,52 +935,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1272,10 +1280,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1309,31 +1317,19 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -1341,36 +1337,36 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
         <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1378,79 +1374,78 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="D6"/>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
         <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
         <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
         <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1458,109 +1453,115 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
         <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
         <v>34</v>
       </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>35</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>36</v>
-      </c>
-      <c r="E12" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
         <v>38</v>
       </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" t="s">
-        <v>40</v>
-      </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" t="s">
         <v>42</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
         <v>46</v>
-      </c>
-      <c r="C15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
         <v>50</v>
-      </c>
-      <c r="C16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
         <v>53</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
         <v>54</v>
-      </c>
-      <c r="D17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1568,86 +1569,80 @@
         <v>55</v>
       </c>
       <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" t="s">
         <v>54</v>
-      </c>
-      <c r="D18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
         <v>59</v>
       </c>
-      <c r="C20" t="s">
-        <v>60</v>
+      <c r="D20" t="s">
+        <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" t="s">
         <v>62</v>
-      </c>
-      <c r="D21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
         <v>65</v>
       </c>
-      <c r="B22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" t="s">
-        <v>63</v>
-      </c>
       <c r="E22" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" t="s">
         <v>68</v>
       </c>
-      <c r="B23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="E23" t="s">
         <v>69</v>
-      </c>
-      <c r="D23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1655,98 +1650,98 @@
         <v>70</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
         <v>71</v>
       </c>
       <c r="D24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" t="s">
         <v>72</v>
-      </c>
-      <c r="E24" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
         <v>74</v>
       </c>
-      <c r="B25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" t="s">
-        <v>75</v>
-      </c>
       <c r="D25" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" t="s">
         <v>78</v>
-      </c>
-      <c r="B26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" t="s">
-        <v>76</v>
-      </c>
-      <c r="E26" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
         <v>80</v>
       </c>
-      <c r="B27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" t="s">
-        <v>75</v>
-      </c>
       <c r="D27" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" t="s">
         <v>84</v>
-      </c>
-      <c r="E28" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D29" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E29" t="s">
         <v>86</v>
@@ -1754,19 +1749,19 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" t="s">
         <v>89</v>
       </c>
-      <c r="B30" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="E30" t="s">
         <v>90</v>
-      </c>
-      <c r="D30" t="s">
-        <v>88</v>
-      </c>
-      <c r="E30" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1774,16 +1769,50 @@
         <v>91</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
         <v>92</v>
       </c>
       <c r="D31" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" t="s">
         <v>93</v>
+      </c>
+      <c r="E32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/训练语料/基本意图.xlsx
+++ b/训练语料/基本意图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="18825" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,13 +42,13 @@
     <t>#{{sub}}</t>
   </si>
   <si>
-    <t>说明</t>
+    <t>解释</t>
   </si>
   <si>
     <t>注释2</t>
   </si>
   <si>
-    <t>申明</t>
+    <t>声明</t>
   </si>
   <si>
     <t>终端输出文本</t>
@@ -318,17 +318,47 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -342,6 +372,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -351,7 +395,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,6 +439,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -372,111 +477,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -487,187 +487,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,17 +681,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,23 +702,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -759,11 +738,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -778,153 +763,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -935,54 +935,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
     <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1283,7 +1283,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/训练语料/基本意图.xlsx
+++ b/训练语料/基本意图.xlsx
@@ -39,7 +39,7 @@
     <t>注释</t>
   </si>
   <si>
-    <t>#{{sub}}</t>
+    <t>#{{original}}</t>
   </si>
   <si>
     <t>解释</t>
@@ -320,10 +320,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -334,10 +334,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -356,11 +357,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -373,16 +373,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -394,10 +395,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -411,14 +413,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -431,27 +441,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -464,15 +472,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -487,19 +487,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,163 +667,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,15 +678,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -702,8 +693,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -718,21 +724,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -755,6 +746,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -763,168 +778,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1283,7 +1283,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/训练语料/基本意图.xlsx
+++ b/训练语料/基本意图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18825" windowHeight="7635"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -246,7 +246,7 @@
     <t>引用模块</t>
   </si>
   <si>
-    <t>importmod({{tarargs}})</t>
+    <t>importmod({{args}})</t>
   </si>
   <si>
     <t>模块</t>
@@ -318,17 +318,64 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -342,13 +389,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -358,48 +398,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -419,13 +420,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -435,29 +429,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -477,6 +449,34 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -487,6 +487,144 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -505,7 +643,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,157 +661,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,6 +678,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -700,16 +715,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,30 +740,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -770,6 +761,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -783,148 +783,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -935,54 +935,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
     <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1283,7 +1283,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/训练语料/基本意图.xlsx
+++ b/训练语料/基本意图.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="107">
   <si>
     <t>name</t>
   </si>
@@ -313,6 +313,30 @@
   </si>
   <si>
     <t>截取</t>
+  </si>
+  <si>
+    <t>正向排序</t>
+  </si>
+  <si>
+    <t>asc()</t>
+  </si>
+  <si>
+    <t>正序</t>
+  </si>
+  <si>
+    <t>从小到大</t>
+  </si>
+  <si>
+    <t>反向排序</t>
+  </si>
+  <si>
+    <t>desc()</t>
+  </si>
+  <si>
+    <t>逆序</t>
+  </si>
+  <si>
+    <t>从大到小</t>
   </si>
 </sst>
 </file>
@@ -1280,10 +1304,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1813,6 +1837,40 @@
       </c>
       <c r="E33" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/训练语料/基本意图.xlsx
+++ b/训练语料/基本意图.xlsx
@@ -318,7 +318,7 @@
     <t>正向排序</t>
   </si>
   <si>
-    <t>asc()</t>
+    <t>ASC</t>
   </si>
   <si>
     <t>正序</t>
@@ -330,7 +330,7 @@
     <t>反向排序</t>
   </si>
   <si>
-    <t>desc()</t>
+    <t>DESC</t>
   </si>
   <si>
     <t>逆序</t>
@@ -1307,7 +1307,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/训练语料/基本意图.xlsx
+++ b/训练语料/基本意图.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="115">
   <si>
     <t>name</t>
   </si>
@@ -337,6 +337,38 @@
   </si>
   <si>
     <t>从大到小</t>
+  </si>
+  <si>
+    <t>投影数据</t>
+  </si>
+  <si>
+    <t>proj({{args}})</t>
+  </si>
+  <si>
+    <t>记录</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>取数据组</t>
+    </r>
+  </si>
+  <si>
+    <t>投影数据2</t>
+  </si>
+  <si>
+    <t>前切片记录</t>
+  </si>
+  <si>
+    <t>条</t>
+  </si>
+  <si>
+    <t>后切片记录</t>
   </si>
 </sst>
 </file>
@@ -349,13 +381,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -822,139 +860,142 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1304,10 +1345,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1871,6 +1912,74 @@
       </c>
       <c r="E35" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" t="s">
+        <v>109</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" t="s">
+        <v>113</v>
+      </c>
+      <c r="E38" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" t="s">
+        <v>113</v>
+      </c>
+      <c r="E39" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/训练语料/基本意图.xlsx
+++ b/训练语料/基本意图.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="115">
   <si>
     <t>name</t>
   </si>
@@ -304,6 +304,15 @@
   </si>
   <si>
     <t>rslicepos({{args}})</t>
+  </si>
+  <si>
+    <t>指定位</t>
+  </si>
+  <si>
+    <t>ipos({{args}})</t>
+  </si>
+  <si>
+    <t>指定位置</t>
   </si>
   <si>
     <t>截取串</t>
@@ -360,15 +369,6 @@
   </si>
   <si>
     <t>投影数据2</t>
-  </si>
-  <si>
-    <t>前切片记录</t>
-  </si>
-  <si>
-    <t>条</t>
-  </si>
-  <si>
-    <t>后切片记录</t>
   </si>
 </sst>
 </file>
@@ -1345,10 +1345,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="A33" sqref="A33:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1891,95 +1891,78 @@
         <v>100</v>
       </c>
       <c r="D34" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" t="s">
         <v>101</v>
-      </c>
-      <c r="E34" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" t="s">
         <v>103</v>
       </c>
-      <c r="B35" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>104</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>105</v>
-      </c>
-      <c r="E35" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" t="s">
         <v>107</v>
       </c>
-      <c r="B36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>108</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>109</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" t="s">
         <v>111</v>
       </c>
-      <c r="B37" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" t="s">
-        <v>108</v>
-      </c>
       <c r="D37" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" t="s">
         <v>112</v>
       </c>
-      <c r="B38" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38" t="s">
-        <v>92</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="E38" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="E38" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
-        <v>114</v>
-      </c>
-      <c r="B39" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" t="s">
-        <v>95</v>
-      </c>
-      <c r="D39" t="s">
-        <v>113</v>
-      </c>
-      <c r="E39" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/训练语料/基本意图.xlsx
+++ b/训练语料/基本意图.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="117">
   <si>
     <t>name</t>
   </si>
@@ -369,6 +369,12 @@
   </si>
   <si>
     <t>投影数据2</t>
+  </si>
+  <si>
+    <t>定义函数</t>
+  </si>
+  <si>
+    <t>deffoo({{args}})</t>
   </si>
 </sst>
 </file>
@@ -1345,10 +1351,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:E33"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1963,6 +1969,20 @@
       </c>
       <c r="E38" s="1" t="s">
         <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" t="s">
+        <v>116</v>
+      </c>
+      <c r="E39" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/训练语料/基本意图.xlsx
+++ b/训练语料/基本意图.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="119">
   <si>
     <t>name</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>#{{original}}</t>
-  </si>
-  <si>
-    <t>解释</t>
   </si>
   <si>
     <t>注释2</t>
@@ -375,6 +372,15 @@
   </si>
   <si>
     <t>deffoo({{args}})</t>
+  </si>
+  <si>
+    <t>函数解答</t>
+  </si>
+  <si>
+    <t>foo({{args}})</t>
+  </si>
+  <si>
+    <t>解释</t>
   </si>
 </sst>
 </file>
@@ -1351,10 +1357,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1392,597 +1398,608 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
         <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>26</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
         <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>30</v>
       </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>34</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>35</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
         <v>37</v>
       </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" t="s">
-        <v>38</v>
-      </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
         <v>39</v>
       </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>40</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>41</v>
-      </c>
-      <c r="E14" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
         <v>43</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>44</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>45</v>
-      </c>
-      <c r="E15" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
         <v>47</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>48</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>49</v>
-      </c>
-      <c r="E16" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
         <v>51</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>52</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>53</v>
-      </c>
-      <c r="E17" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
         <v>55</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>56</v>
       </c>
-      <c r="D18" t="s">
-        <v>57</v>
-      </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s">
         <v>58</v>
       </c>
-      <c r="C19" t="s">
-        <v>59</v>
-      </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" t="s">
         <v>60</v>
-      </c>
-      <c r="C20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
         <v>62</v>
       </c>
-      <c r="C21" t="s">
-        <v>63</v>
-      </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
         <v>64</v>
       </c>
-      <c r="C22" t="s">
-        <v>65</v>
-      </c>
       <c r="E22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
         <v>66</v>
       </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>67</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>68</v>
-      </c>
-      <c r="E23" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
         <v>70</v>
       </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" t="s">
         <v>71</v>
-      </c>
-      <c r="D24" t="s">
-        <v>68</v>
-      </c>
-      <c r="E24" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
         <v>73</v>
       </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>74</v>
-      </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
         <v>75</v>
       </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>76</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>77</v>
-      </c>
-      <c r="E26" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
         <v>79</v>
       </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>80</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>81</v>
-      </c>
-      <c r="E27" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" t="s">
         <v>83</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>80</v>
-      </c>
-      <c r="D28" t="s">
-        <v>81</v>
-      </c>
-      <c r="E28" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" t="s">
         <v>85</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>80</v>
-      </c>
-      <c r="D29" t="s">
-        <v>81</v>
-      </c>
-      <c r="E29" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" t="s">
         <v>87</v>
       </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>88</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>89</v>
-      </c>
-      <c r="E30" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" t="s">
         <v>91</v>
       </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>92</v>
       </c>
-      <c r="D31" t="s">
-        <v>93</v>
-      </c>
       <c r="E31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" t="s">
         <v>94</v>
       </c>
-      <c r="B32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" t="s">
-        <v>95</v>
-      </c>
       <c r="D32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" t="s">
         <v>96</v>
       </c>
-      <c r="B33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" t="s">
         <v>97</v>
-      </c>
-      <c r="D33" t="s">
-        <v>93</v>
-      </c>
-      <c r="E33" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" t="s">
         <v>99</v>
       </c>
-      <c r="B34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" t="s">
         <v>100</v>
-      </c>
-      <c r="D34" t="s">
-        <v>93</v>
-      </c>
-      <c r="E34" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" t="s">
         <v>102</v>
       </c>
-      <c r="B35" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>103</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>104</v>
-      </c>
-      <c r="E35" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" t="s">
         <v>106</v>
       </c>
-      <c r="B36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>107</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>108</v>
-      </c>
-      <c r="E36" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" t="s">
         <v>110</v>
       </c>
-      <c r="B37" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>111</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C38" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" t="s">
         <v>111</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" t="s">
         <v>115</v>
       </c>
-      <c r="B39" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="E39" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
         <v>116</v>
       </c>
-      <c r="E39" t="s">
-        <v>115</v>
+      <c r="C40" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/训练语料/基本意图.xlsx
+++ b/训练语料/基本意图.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="120">
   <si>
     <t>name</t>
   </si>
@@ -369,6 +369,9 @@
   </si>
   <si>
     <t>定义函数</t>
+  </si>
+  <si>
+    <t>kae</t>
   </si>
   <si>
     <t>deffoo({{args}})</t>
@@ -1360,7 +1363,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1982,10 +1985,10 @@
         <v>114</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="C39" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E39" t="s">
         <v>114</v>
@@ -1993,13 +1996,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C40" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E40" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/训练语料/基本意图.xlsx
+++ b/训练语料/基本意图.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="124">
   <si>
     <t>name</t>
   </si>
@@ -384,6 +384,18 @@
   </si>
   <si>
     <t>解释</t>
+  </si>
+  <si>
+    <t>函数返回</t>
+  </si>
+  <si>
+    <t>fooreturn('%fooname%',{{args}})</t>
+  </si>
+  <si>
+    <t>结果</t>
+  </si>
+  <si>
+    <t>得到</t>
   </si>
 </sst>
 </file>
@@ -1360,10 +1372,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2003,6 +2015,23 @@
       </c>
       <c r="E40" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" t="s">
+        <v>122</v>
+      </c>
+      <c r="E41" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/训练语料/基本意图.xlsx
+++ b/训练语料/基本意图.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="127">
   <si>
     <t>name</t>
   </si>
@@ -268,6 +268,15 @@
   </si>
   <si>
     <t>读取</t>
+  </si>
+  <si>
+    <t>读取数据内容</t>
+  </si>
+  <si>
+    <t>StructuredData({{src}},{{tarargs}}, {{srcargs}})</t>
+  </si>
+  <si>
+    <t>数据描述</t>
   </si>
   <si>
     <t>访问内容</t>
@@ -1372,10 +1381,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1830,47 +1839,47 @@
         <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D29" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B30" t="s">
         <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" t="s">
         <v>88</v>
-      </c>
-      <c r="E30" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" t="s">
         <v>90</v>
       </c>
-      <c r="B31" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>91</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>92</v>
-      </c>
-      <c r="E31" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1884,27 +1893,27 @@
         <v>94</v>
       </c>
       <c r="D32" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E32" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" t="s">
         <v>95</v>
       </c>
-      <c r="B33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" t="s">
-        <v>96</v>
-      </c>
-      <c r="D33" t="s">
-        <v>92</v>
-      </c>
       <c r="E33" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1918,7 +1927,7 @@
         <v>99</v>
       </c>
       <c r="D34" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E34" t="s">
         <v>100</v>
@@ -1935,103 +1944,120 @@
         <v>102</v>
       </c>
       <c r="D35" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" t="s">
         <v>103</v>
-      </c>
-      <c r="E35" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" t="s">
         <v>105</v>
       </c>
-      <c r="B36" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>106</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>107</v>
-      </c>
-      <c r="E36" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" t="s">
         <v>109</v>
       </c>
-      <c r="B37" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>110</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>111</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" t="s">
         <v>113</v>
       </c>
-      <c r="B38" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" t="s">
-        <v>110</v>
-      </c>
       <c r="D38" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
+        <v>116</v>
+      </c>
+      <c r="B39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" t="s">
         <v>114</v>
       </c>
-      <c r="B39" t="s">
+      <c r="E39" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="C39" t="s">
-        <v>116</v>
-      </c>
-      <c r="E39" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>117</v>
       </c>
+      <c r="B40" t="s">
+        <v>118</v>
+      </c>
       <c r="C40" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E40" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>120</v>
       </c>
-      <c r="B41" t="s">
-        <v>115</v>
-      </c>
       <c r="C41" t="s">
         <v>121</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>122</v>
       </c>
-      <c r="E41" t="s">
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
         <v>123</v>
+      </c>
+      <c r="B42" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" t="s">
+        <v>125</v>
+      </c>
+      <c r="E42" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/训练语料/基本意图.xlsx
+++ b/训练语料/基本意图.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="130">
   <si>
     <t>name</t>
   </si>
@@ -405,6 +405,15 @@
   </si>
   <si>
     <t>得到</t>
+  </si>
+  <si>
+    <t>监听对象</t>
+  </si>
+  <si>
+    <t>waitat(self, self.argname, {{tarargs}})</t>
+  </si>
+  <si>
+    <t>监听</t>
   </si>
 </sst>
 </file>
@@ -1381,10 +1390,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2058,6 +2067,23 @@
       </c>
       <c r="E42" t="s">
         <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>127</v>
+      </c>
+      <c r="B43" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/训练语料/基本意图.xlsx
+++ b/训练语料/基本意图.xlsx
@@ -147,7 +147,7 @@
     <t>获取变量的属性</t>
   </si>
   <si>
-    <t>getattr({{src}}, {{tarargs}})</t>
+    <t>kgetattr({{src}}, {{tarargs}})</t>
   </si>
   <si>
     <t>属性</t>
@@ -1393,7 +1393,7 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/训练语料/基本意图.xlsx
+++ b/训练语料/基本意图.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="134">
   <si>
     <t>name</t>
   </si>
@@ -207,10 +207,22 @@
     <t>saveas('{{args}}')</t>
   </si>
   <si>
+    <t>另存</t>
+  </si>
+  <si>
     <t>命名为</t>
   </si>
   <si>
     <t>renameme('{{args}}')</t>
+  </si>
+  <si>
+    <t>命名</t>
+  </si>
+  <si>
+    <t>重命名为</t>
+  </si>
+  <si>
+    <t>重定义</t>
   </si>
   <si>
     <t>描述构建对象</t>
@@ -1390,10 +1402,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1724,32 +1736,26 @@
         <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E22" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
         <v>65</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" t="s">
-        <v>67</v>
       </c>
       <c r="E23" t="s">
         <v>68</v>
@@ -1766,44 +1772,44 @@
         <v>70</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="E25" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1831,61 +1837,61 @@
         <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D28" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E28" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" t="s">
         <v>84</v>
       </c>
-      <c r="B29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" t="s">
-        <v>85</v>
-      </c>
-      <c r="D29" t="s">
-        <v>86</v>
-      </c>
       <c r="E29" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" t="s">
         <v>87</v>
-      </c>
-      <c r="B30" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" t="s">
-        <v>80</v>
-      </c>
-      <c r="E30" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B31" t="s">
         <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D31" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E31" t="s">
         <v>92</v>
@@ -1905,72 +1911,72 @@
         <v>95</v>
       </c>
       <c r="E32" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B33" t="s">
         <v>24</v>
       </c>
       <c r="C33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" t="s">
         <v>97</v>
-      </c>
-      <c r="D33" t="s">
-        <v>95</v>
-      </c>
-      <c r="E33" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B34" t="s">
         <v>24</v>
       </c>
       <c r="C34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" t="s">
         <v>99</v>
       </c>
-      <c r="D34" t="s">
-        <v>95</v>
-      </c>
       <c r="E34" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B35" t="s">
         <v>24</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D35" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E35" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B36" t="s">
         <v>24</v>
       </c>
       <c r="C36" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D36" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E36" t="s">
         <v>107</v>
@@ -2006,7 +2012,7 @@
       <c r="D38" t="s">
         <v>114</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2018,51 +2024,51 @@
         <v>24</v>
       </c>
       <c r="C39" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D39" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
+        <v>120</v>
+      </c>
+      <c r="B40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" t="s">
         <v>117</v>
       </c>
-      <c r="B40" t="s">
+      <c r="D40" t="s">
         <v>118</v>
       </c>
-      <c r="C40" t="s">
+      <c r="E40" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="E40" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="B41" t="s">
+        <v>122</v>
       </c>
       <c r="C41" t="s">
+        <v>123</v>
+      </c>
+      <c r="E41" t="s">
         <v>121</v>
-      </c>
-      <c r="E41" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>123</v>
-      </c>
-      <c r="B42" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C42" t="s">
-        <v>124</v>
-      </c>
-      <c r="D42" t="s">
         <v>125</v>
       </c>
       <c r="E42" t="s">
@@ -2074,16 +2080,33 @@
         <v>127</v>
       </c>
       <c r="B43" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C43" t="s">
         <v>128</v>
       </c>
       <c r="D43" t="s">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="E43" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/训练语料/基本意图.xlsx
+++ b/训练语料/基本意图.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="140">
   <si>
     <t>name</t>
   </si>
@@ -426,6 +426,24 @@
   </si>
   <si>
     <t>监听</t>
+  </si>
+  <si>
+    <t>如果判断</t>
+  </si>
+  <si>
+    <t>kif({{args}})</t>
+  </si>
+  <si>
+    <t>如果</t>
+  </si>
+  <si>
+    <t>那么就</t>
+  </si>
+  <si>
+    <t>thendo({{args}})</t>
+  </si>
+  <si>
+    <t>则</t>
   </si>
 </sst>
 </file>
@@ -1402,10 +1420,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2107,6 +2125,31 @@
       </c>
       <c r="E44" t="s">
         <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" t="s">
+        <v>122</v>
+      </c>
+      <c r="C45" t="s">
+        <v>135</v>
+      </c>
+      <c r="E45" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>137</v>
+      </c>
+      <c r="C46" t="s">
+        <v>138</v>
+      </c>
+      <c r="E46" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/训练语料/基本意图.xlsx
+++ b/训练语料/基本意图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="19485" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
     <t>注释2</t>
   </si>
   <si>
-    <t>声明</t>
+    <t>说明</t>
   </si>
   <si>
     <t>终端输出文本</t>
@@ -434,29 +434,29 @@
     <t>kif({{args}})</t>
   </si>
   <si>
-    <t>如果</t>
+    <t>是与非判断</t>
   </si>
   <si>
     <t>那么就</t>
   </si>
   <si>
-    <t>thendo({{args}})</t>
-  </si>
-  <si>
-    <t>则</t>
+    <t>thendo({{sub}})</t>
+  </si>
+  <si>
+    <t>下一步从句</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -471,9 +471,45 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -481,7 +517,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,6 +538,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -518,19 +585,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -543,23 +601,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -574,42 +616,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -624,43 +631,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,13 +781,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,24 +799,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -720,91 +811,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -815,6 +822,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -837,46 +868,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -898,15 +890,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -915,214 +898,241 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
     <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1422,8 +1432,8 @@
   <sheetPr/>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1431,6 +1441,7 @@
     <col min="1" max="1" width="16.375" customWidth="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="53.75" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2137,7 +2148,7 @@
       <c r="C45" t="s">
         <v>135</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="2" t="s">
         <v>136</v>
       </c>
     </row>

--- a/训练语料/基本意图.xlsx
+++ b/训练语料/基本意图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19485" windowHeight="7815"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -431,7 +431,7 @@
     <t>如果判断</t>
   </si>
   <si>
-    <t>kif({{args}})</t>
+    <t>kif({{sub}})</t>
   </si>
   <si>
     <t>是与非判断</t>
@@ -449,12 +449,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -478,38 +478,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -517,7 +488,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -538,37 +509,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -585,15 +525,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -608,15 +588,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -631,91 +631,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -727,91 +811,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -822,30 +822,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -868,7 +844,46 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -890,6 +905,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -898,177 +922,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1085,54 +1085,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
     <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1433,7 +1433,7 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/训练语料/基本意图.xlsx
+++ b/训练语料/基本意图.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="143">
   <si>
     <t>name</t>
   </si>
@@ -431,7 +431,7 @@
     <t>如果判断</t>
   </si>
   <si>
-    <t>kif({{sub}})</t>
+    <t>kif(lambda:{{sub}})</t>
   </si>
   <si>
     <t>是与非判断</t>
@@ -440,10 +440,19 @@
     <t>那么就</t>
   </si>
   <si>
-    <t>thendo({{sub}})</t>
+    <t>thendo(lambda:{{sub}})</t>
   </si>
   <si>
     <t>下一步从句</t>
+  </si>
+  <si>
+    <t>否则就</t>
+  </si>
+  <si>
+    <t>kelse(lambda:{{sub}})</t>
+  </si>
+  <si>
+    <t>非判断</t>
   </si>
 </sst>
 </file>
@@ -1430,10 +1439,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2161,6 +2170,17 @@
       </c>
       <c r="E46" t="s">
         <v>139</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>140</v>
+      </c>
+      <c r="C47" t="s">
+        <v>141</v>
+      </c>
+      <c r="E47" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/训练语料/基本意图.xlsx
+++ b/训练语料/基本意图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="19485" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="149">
   <si>
     <t>name</t>
   </si>
@@ -454,16 +454,34 @@
   <si>
     <t>非判断</t>
   </si>
+  <si>
+    <t>是奇数</t>
+  </si>
+  <si>
+    <t>({{args}}%2==1)</t>
+  </si>
+  <si>
+    <t>奇数</t>
+  </si>
+  <si>
+    <t>是偶数</t>
+  </si>
+  <si>
+    <t>({{args}}%2==0)</t>
+  </si>
+  <si>
+    <t>偶数</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -487,11 +505,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -503,15 +535,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -527,14 +552,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -544,30 +561,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -582,7 +576,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -597,7 +622,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -611,21 +636,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -640,25 +658,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,157 +820,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -831,6 +849,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -868,21 +895,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -912,11 +924,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -936,148 +954,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1094,54 +1112,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
     <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1439,10 +1457,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2181,6 +2199,36 @@
       </c>
       <c r="E47" t="s">
         <v>142</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>143</v>
+      </c>
+      <c r="B48"/>
+      <c r="C48" t="s">
+        <v>144</v>
+      </c>
+      <c r="D48" t="s">
+        <v>145</v>
+      </c>
+      <c r="E48" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>146</v>
+      </c>
+      <c r="B49"/>
+      <c r="C49" t="s">
+        <v>147</v>
+      </c>
+      <c r="D49" t="s">
+        <v>148</v>
+      </c>
+      <c r="E49" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/训练语料/基本意图.xlsx
+++ b/训练语料/基本意图.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="150">
   <si>
     <t>name</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>retcls</t>
+  </si>
+  <si>
+    <t>laterexec</t>
   </si>
   <si>
     <t>注释</t>
@@ -478,9 +481,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -519,17 +522,69 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -543,9 +598,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -553,37 +615,6 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -599,9 +630,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -612,42 +651,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -664,181 +667,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -857,6 +860,69 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -878,69 +944,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -954,142 +957,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1457,13 +1460,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="16.375" customWidth="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
@@ -1471,7 +1474,7 @@
     <col min="5" max="5" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1490,745 +1493,749 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
         <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>31</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
         <v>36</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" t="s">
         <v>54</v>
-      </c>
-      <c r="C18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
         <v>59</v>
       </c>
-      <c r="C20" t="s">
-        <v>58</v>
-      </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" t="s">
         <v>88</v>
-      </c>
-      <c r="B30" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" t="s">
-        <v>90</v>
-      </c>
-      <c r="E30" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E31" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E32" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C33" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" t="s">
         <v>98</v>
-      </c>
-      <c r="D33" t="s">
-        <v>99</v>
-      </c>
-      <c r="E33" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" t="s">
         <v>100</v>
       </c>
-      <c r="B34" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" t="s">
-        <v>101</v>
-      </c>
-      <c r="D34" t="s">
-        <v>99</v>
-      </c>
       <c r="E34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D35" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E35" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C36" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D36" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C37" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D37" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E37" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B38" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C38" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D38" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E38" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C39" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
+        <v>121</v>
+      </c>
+      <c r="B40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40" t="s">
+        <v>119</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="B40" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" t="s">
-        <v>117</v>
-      </c>
-      <c r="D40" t="s">
-        <v>118</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B41" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" t="s">
+        <v>124</v>
+      </c>
+      <c r="E41" t="s">
         <v>122</v>
-      </c>
-      <c r="C41" t="s">
-        <v>123</v>
-      </c>
-      <c r="E41" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C42" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E42" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B43" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C43" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E43" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B44" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C44" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E44" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B45" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C45" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C46" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E46" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C47" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E47" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>143</v>
-      </c>
-      <c r="B48"/>
+        <v>144</v>
+      </c>
       <c r="C48" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>146</v>
-      </c>
-      <c r="B49"/>
+        <v>147</v>
+      </c>
       <c r="C49" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E49" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/训练语料/基本意图.xlsx
+++ b/训练语料/基本意图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19485" windowHeight="7815"/>
+    <workbookView windowWidth="28590" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="156">
   <si>
     <t>name</t>
   </si>
@@ -475,16 +475,34 @@
   <si>
     <t>偶数</t>
   </si>
+  <si>
+    <t>取随机整数</t>
+  </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
+    <t>random.randint(0, 1000)</t>
+  </si>
+  <si>
+    <t>随机整数</t>
+  </si>
+  <si>
+    <t>取范围内随机整数</t>
+  </si>
+  <si>
+    <t>random.randint({{args1}}, {{args2}})</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -509,36 +527,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -551,9 +540,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -568,23 +572,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -606,18 +594,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -628,9 +617,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -646,7 +657,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -661,31 +679,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,151 +847,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -858,38 +876,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -911,9 +899,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -922,7 +912,46 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -941,164 +970,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1460,18 +1478,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="16.375" customWidth="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="53.75" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2236,6 +2254,40 @@
       </c>
       <c r="E49" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>150</v>
+      </c>
+      <c r="B50" t="s">
+        <v>151</v>
+      </c>
+      <c r="C50" t="s">
+        <v>152</v>
+      </c>
+      <c r="D50" t="s">
+        <v>153</v>
+      </c>
+      <c r="E50" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>154</v>
+      </c>
+      <c r="B51" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" t="s">
+        <v>155</v>
+      </c>
+      <c r="D51" t="s">
+        <v>153</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2254,7 +2306,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2271,7 +2323,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/训练语料/基本意图.xlsx
+++ b/训练语料/基本意图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28590" windowHeight="12195"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -482,7 +482,7 @@
     <t>random</t>
   </si>
   <si>
-    <t>random.randint(0, 1000)</t>
+    <t>randint(0, 1000)</t>
   </si>
   <si>
     <t>随机整数</t>
@@ -491,18 +491,18 @@
     <t>取范围内随机整数</t>
   </si>
   <si>
-    <t>random.randint({{args1}}, {{args2}})</t>
+    <t>randint({{args1}}, {{args2}})</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -526,17 +526,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -550,12 +583,51 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -570,41 +642,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -618,53 +657,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -679,25 +679,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,157 +859,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,11 +873,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -897,26 +936,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -932,21 +951,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -956,17 +960,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -975,148 +975,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1133,54 +1133,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
     <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1481,10 +1481,10 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="16.375" customWidth="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
@@ -2306,7 +2306,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2323,7 +2323,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/训练语料/基本意图.xlsx
+++ b/训练语料/基本意图.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="161">
   <si>
     <t>name</t>
   </si>
@@ -492,6 +492,21 @@
   </si>
   <si>
     <t>randint({{args1}}, {{args2}})</t>
+  </si>
+  <si>
+    <t>数字转中文</t>
+  </si>
+  <si>
+    <t>kae.libs.num</t>
+  </si>
+  <si>
+    <t>num2cn({{tarargs}})</t>
+  </si>
+  <si>
+    <t>中文表达</t>
+  </si>
+  <si>
+    <t>转为中文数字</t>
   </si>
 </sst>
 </file>
@@ -1478,10 +1493,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2288,6 +2303,23 @@
       </c>
       <c r="E51" s="2" t="s">
         <v>154</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B52" t="s">
+        <v>157</v>
+      </c>
+      <c r="C52" t="s">
+        <v>158</v>
+      </c>
+      <c r="D52" t="s">
+        <v>159</v>
+      </c>
+      <c r="E52" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/训练语料/基本意图.xlsx
+++ b/训练语料/基本意图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="19485" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="164">
   <si>
     <t>name</t>
   </si>
@@ -508,16 +508,25 @@
   <si>
     <t>转为中文数字</t>
   </si>
+  <si>
+    <t>重复多次</t>
+  </si>
+  <si>
+    <t>repeatn({{tarargs}},{{args}})</t>
+  </si>
+  <si>
+    <t>次</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -532,28 +541,49 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -572,6 +602,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -587,103 +693,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -694,13 +703,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,18 +799,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -742,13 +829,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,31 +841,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,85 +877,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -888,35 +897,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -932,6 +917,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -968,15 +986,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -990,152 +999,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1143,59 +1152,62 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
     <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1493,10 +1505,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2124,7 +2136,7 @@
       <c r="D39" t="s">
         <v>119</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="2" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2141,7 +2153,7 @@
       <c r="D40" t="s">
         <v>119</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="2" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2214,7 +2226,7 @@
       <c r="C45" t="s">
         <v>136</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" s="3" t="s">
         <v>137</v>
       </c>
       <c r="G45" t="b">
@@ -2301,7 +2313,7 @@
       <c r="D51" t="s">
         <v>153</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" s="3" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2320,6 +2332,23 @@
       </c>
       <c r="E52" t="s">
         <v>160</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B53" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" t="s">
+        <v>162</v>
+      </c>
+      <c r="D53" t="s">
+        <v>163</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/训练语料/基本意图.xlsx
+++ b/训练语料/基本意图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19485" windowHeight="7815"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="173">
   <si>
     <t>name</t>
   </si>
@@ -517,16 +517,51 @@
   <si>
     <t>次</t>
   </si>
+  <si>
+    <t>任务动作</t>
+  </si>
+  <si>
+    <t>taskfoo(lambda self:{{sub}})</t>
+  </si>
+  <si>
+    <t>任务</t>
+  </si>
+  <si>
+    <t>需要</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取循环子当前值</t>
+    </r>
+  </si>
+  <si>
+    <t>self.itor</t>
+  </si>
+  <si>
+    <t>重复执行</t>
+  </si>
+  <si>
+    <t>fordo({{tarargs}}, {{args}})</t>
+  </si>
+  <si>
+    <t>启动</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -541,49 +576,28 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -602,15 +616,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -626,7 +665,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -640,24 +694,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -670,29 +715,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -703,13 +738,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,169 +918,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -897,11 +932,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -917,39 +976,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -986,6 +1012,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -999,148 +1034,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1160,54 +1195,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
     <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1505,10 +1540,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2136,7 +2171,7 @@
       <c r="D39" t="s">
         <v>119</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="1" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2153,7 +2188,7 @@
       <c r="D40" t="s">
         <v>119</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="1" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2226,7 +2261,7 @@
       <c r="C45" t="s">
         <v>136</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G45" t="b">
@@ -2313,7 +2348,7 @@
       <c r="D51" t="s">
         <v>153</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="2" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2335,7 +2370,7 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="2" t="s">
         <v>161</v>
       </c>
       <c r="B53" t="s">
@@ -2347,8 +2382,54 @@
       <c r="D53" t="s">
         <v>163</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" s="2" t="s">
         <v>161</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>164</v>
+      </c>
+      <c r="B54"/>
+      <c r="C54" t="s">
+        <v>165</v>
+      </c>
+      <c r="D54" t="s">
+        <v>166</v>
+      </c>
+      <c r="E54" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C55" t="s">
+        <v>169</v>
+      </c>
+      <c r="D55" t="s">
+        <v>41</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>170</v>
+      </c>
+      <c r="B56" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56" t="s">
+        <v>171</v>
+      </c>
+      <c r="D56" t="s">
+        <v>166</v>
+      </c>
+      <c r="E56" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/训练语料/基本意图.xlsx
+++ b/训练语料/基本意图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="19485" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="173">
   <si>
     <t>name</t>
   </si>
@@ -556,12 +556,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -576,140 +576,17 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -728,6 +605,129 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -738,187 +738,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,35 +932,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -980,17 +982,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1010,22 +1015,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1034,152 +1034,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1187,62 +1187,59 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
     <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1540,10 +1537,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="$A21:$XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1878,119 +1875,113 @@
         <v>63</v>
       </c>
       <c r="E21" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E22" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
         <v>66</v>
       </c>
       <c r="E23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E24" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D25" t="s">
         <v>72</v>
       </c>
       <c r="E25" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="E26" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D27" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="E27" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s">
         <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D28" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E28" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s">
         <v>25</v>
@@ -2002,21 +1993,21 @@
         <v>85</v>
       </c>
       <c r="E29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B30" t="s">
         <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D30" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E30" t="s">
         <v>88</v>
@@ -2024,64 +2015,64 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B31" t="s">
         <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D31" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E31" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B32" t="s">
         <v>25</v>
       </c>
       <c r="C32" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D32" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E32" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B33" t="s">
         <v>25</v>
       </c>
       <c r="C33" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D33" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B34" t="s">
         <v>25</v>
       </c>
       <c r="C34" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D34" t="s">
         <v>100</v>
@@ -2092,92 +2083,92 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B35" t="s">
         <v>25</v>
       </c>
       <c r="C35" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D35" t="s">
         <v>100</v>
       </c>
       <c r="E35" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B36" t="s">
         <v>25</v>
       </c>
       <c r="C36" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D36" t="s">
         <v>100</v>
       </c>
       <c r="E36" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B37" t="s">
         <v>25</v>
       </c>
       <c r="C37" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D37" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="E37" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B38" t="s">
         <v>25</v>
       </c>
       <c r="C38" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D38" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E38" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B39" t="s">
         <v>25</v>
       </c>
       <c r="C39" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D39" t="s">
-        <v>119</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
+      </c>
+      <c r="E39" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B40" t="s">
         <v>25</v>
@@ -2188,131 +2179,134 @@
       <c r="D40" t="s">
         <v>119</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="2" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B41" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="C41" t="s">
-        <v>124</v>
-      </c>
-      <c r="E41" t="s">
-        <v>122</v>
+        <v>118</v>
+      </c>
+      <c r="D41" t="s">
+        <v>119</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>125</v>
+        <v>122</v>
+      </c>
+      <c r="B42" t="s">
+        <v>123</v>
       </c>
       <c r="C42" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E42" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>128</v>
-      </c>
-      <c r="B43" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C43" t="s">
-        <v>129</v>
-      </c>
-      <c r="D43" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E43" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B44" t="s">
         <v>123</v>
       </c>
       <c r="C44" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D44" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="E44" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B45" t="s">
         <v>123</v>
       </c>
       <c r="C45" t="s">
+        <v>133</v>
+      </c>
+      <c r="D45" t="s">
+        <v>72</v>
+      </c>
+      <c r="E45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" t="s">
         <v>136</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E46" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G45" t="b">
+      <c r="G46" t="b">
         <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" t="s">
-        <v>138</v>
-      </c>
-      <c r="C46" t="s">
-        <v>139</v>
-      </c>
-      <c r="E46" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C47" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E47" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C48" t="s">
-        <v>145</v>
-      </c>
-      <c r="D48" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E48" t="s">
-        <v>61</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C49" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D49" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E49" t="s">
         <v>61</v>
@@ -2320,115 +2314,128 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>150</v>
-      </c>
-      <c r="B50" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C50" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D50" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E50" t="s">
-        <v>150</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B51" t="s">
         <v>151</v>
       </c>
       <c r="C51" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D51" t="s">
         <v>153</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>154</v>
+      <c r="E51" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
+        <v>154</v>
+      </c>
+      <c r="B52" t="s">
+        <v>151</v>
+      </c>
+      <c r="C52" t="s">
+        <v>155</v>
+      </c>
+      <c r="D52" t="s">
+        <v>153</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
         <v>156</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>157</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
         <v>158</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D53" t="s">
         <v>159</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E53" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="2" t="s">
+    <row r="54" spans="1:5">
+      <c r="A54" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>123</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C54" t="s">
         <v>162</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D54" t="s">
         <v>163</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E54" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="s">
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
         <v>164</v>
       </c>
-      <c r="B54"/>
-      <c r="C54" t="s">
+      <c r="C55" t="s">
         <v>165</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D55" t="s">
         <v>166</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E55" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="3" t="s">
+    <row r="56" spans="1:5">
+      <c r="A56" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C56" t="s">
         <v>169</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D56" t="s">
         <v>41</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E56" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="s">
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
         <v>170</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>123</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>171</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D57" t="s">
         <v>166</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E57" t="s">
         <v>172</v>
       </c>
     </row>
